--- a/biology/Médecine/1388_en_santé_et_médecine/1388_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1388_en_santé_et_médecine/1388_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1388_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1388_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1388 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1388_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1388_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Inauguration de la première chaire de médecine de l'université de Heidelberg, fondée deux auparavant, en 1386, en Allemagne.
-Une maladrerie est attestée à Ancelle en Savoie, non loin du col de Manse[1].
-Un hôtel-Dieu est mentionné à Celle-Saint-Eusice en Berry, dans le cartulaire des Feuillants[2].
-Le bâtiment principal de l'hôpital Saint-Georges de Sion, dans le Valais « devient un orphelinat lors de la réunion des trois hôpitaux de la ville[3] ».
-La « première occurrence d'une expertise médicale de la folie[4] » s'offre peut-être, à l'occasion du procès en hérésie mené contre Thomas d'Apulie par l'évêque de Paris, Pierre d'Orgement, et par les maîtres de l'université.
-Des statuts sont établis pour les apothicaires de Crémone en Lombardie[5].
-Les chanoines de la collégiale Saint-Jacques-aux-Pèlerins de Paris sont tenus d'habiter dans l'enclos de l'hôpital[6], mais leur conduite laisse à désirer, au point qu'on en vient à « leur interdire de jouer aux cartes et aux dés, d'aller à la taverne en habits de chœur, de faire entendre à l'église pendant les offices des rires indécents, des contes facétieux et des disputes[7],[8] ».
-Claus bi dem Sluche représente les baigneurs[9] et barbiers au Conseil de la ville de Strasbourg[10].</t>
+Une maladrerie est attestée à Ancelle en Savoie, non loin du col de Manse.
+Un hôtel-Dieu est mentionné à Celle-Saint-Eusice en Berry, dans le cartulaire des Feuillants.
+Le bâtiment principal de l'hôpital Saint-Georges de Sion, dans le Valais « devient un orphelinat lors de la réunion des trois hôpitaux de la ville ».
+La « première occurrence d'une expertise médicale de la folie » s'offre peut-être, à l'occasion du procès en hérésie mené contre Thomas d'Apulie par l'évêque de Paris, Pierre d'Orgement, et par les maîtres de l'université.
+Des statuts sont établis pour les apothicaires de Crémone en Lombardie.
+Les chanoines de la collégiale Saint-Jacques-aux-Pèlerins de Paris sont tenus d'habiter dans l'enclos de l'hôpital, mais leur conduite laisse à désirer, au point qu'on en vient à « leur interdire de jouer aux cartes et aux dés, d'aller à la taverne en habits de chœur, de faire entendre à l'église pendant les offices des rires indécents, des contes facétieux et des disputes, ».
+Claus bi dem Sluche représente les baigneurs et barbiers au Conseil de la ville de Strasbourg.</t>
         </is>
       </c>
     </row>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1388_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1388_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Jehuda ben Salomon, dont le frère Bonsenior vient de traduire du latin en hébreu (1387) le « Lis de la médecine » (Lilium medicine) de Bernard de Gordon[11], publie une version hébraïque de trois autres traités du célèbre professeur de Montpellier[12].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Jehuda ben Salomon, dont le frère Bonsenior vient de traduire du latin en hébreu (1387) le « Lis de la médecine » (Lilium medicine) de Bernard de Gordon, publie une version hébraïque de trois autres traités du célèbre professeur de Montpellier.</t>
         </is>
       </c>
     </row>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1388_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1388_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,10 +594,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>19 octobre : Giovanni Dondi (né vers 1330), médecin, astronome et ingénieur italien, fils de Jacopo Dondi[13].
-1388 au plus tard : Amaudry Chapelle[10] (né à une date inconnue), maître en médecine lyonnais, et Bertrand Ministralis[10] (né à une date inconnue), barbier à Avignon.</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>19 octobre : Giovanni Dondi (né vers 1330), médecin, astronome et ingénieur italien, fils de Jacopo Dondi.
+1388 au plus tard : Amaudry Chapelle (né à une date inconnue), maître en médecine lyonnais, et Bertrand Ministralis (né à une date inconnue), barbier à Avignon.</t>
         </is>
       </c>
     </row>
